--- a/biology/Botanique/Rosa_×odorata_nothovar._gigantea/Rosa_×odorata_nothovar._gigantea.xlsx
+++ b/biology/Botanique/Rosa_×odorata_nothovar._gigantea/Rosa_×odorata_nothovar._gigantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97odorata_nothovar._gigantea</t>
+          <t>Rosa_×odorata_nothovar._gigantea</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rosier géant (Rosa ×odorata nothovar. gigantea) est une nothovariété de rosier, classée dans la section  des Chinenses, originaire du nord-est de l'Inde, du nord de la Birmanie et du sud-est de la Chine (Yunnan) dans les contreforts de l'Himalaya entre 1 000 et 1 500 mètres d'altitude.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97odorata_nothovar._gigantea</t>
+          <t>Rosa_×odorata_nothovar._gigantea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa gigantea Collett ex Crép.
 Rosa duclouxii H.Lév.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97odorata_nothovar._gigantea</t>
+          <t>Rosa_×odorata_nothovar._gigantea</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'indique son nom, c'est la plus grande variété de rosier qui peut grimper jusqu'à 20 mètres, voire plus, dans le houppier des arbres grâce à ses robustes aiguillons recourbés, avec une tige pouvant atteindre 50 cm de diamètre. 
 Les feuilles semi-pérennes, de 15 à 25 cm de long, sont pennées et composées de sept folioles de 4 à 8 cm de long. 
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97odorata_nothovar._gigantea</t>
+          <t>Rosa_×odorata_nothovar._gigantea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hybrides de Rosa gigantea et des rosiers thé ou hybrides de thé : 
 ‘Belle Portugaise’ (Cayeux, 1903)
